--- a/Waze - PlayStore.xlsx
+++ b/Waze - PlayStore.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Google Drive\Engenharia de Software - UFC\LINCE\PRUS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan Lima\Desktop\BIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="525">
   <si>
     <t>Falta ao Waze o cálculo de gasto com combustivel (km/l) e informações dos pedágios pela rota com o valor deles.</t>
   </si>
@@ -13601,8 +13601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I329" sqref="I329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23774,12 +23774,22 @@
         <v>10</v>
       </c>
       <c r="C352" s="19"/>
-      <c r="D352" s="19"/>
-      <c r="E352" s="19"/>
-      <c r="F352" s="19"/>
+      <c r="D352" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="E352" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="F352" s="19" t="s">
+        <v>417</v>
+      </c>
       <c r="G352" s="19"/>
-      <c r="H352" s="19"/>
-      <c r="I352" s="19"/>
+      <c r="H352" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="I352" s="19" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="353" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="10">
@@ -23789,12 +23799,22 @@
         <v>11</v>
       </c>
       <c r="C353" s="19"/>
-      <c r="D353" s="19"/>
-      <c r="E353" s="19"/>
-      <c r="F353" s="19"/>
+      <c r="D353" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="E353" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="F353" s="19" t="s">
+        <v>417</v>
+      </c>
       <c r="G353" s="19"/>
-      <c r="H353" s="19"/>
-      <c r="I353" s="19"/>
+      <c r="H353" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="I353" s="19" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="354" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="10">
@@ -23804,12 +23824,22 @@
         <v>144</v>
       </c>
       <c r="C354" s="19"/>
-      <c r="D354" s="19"/>
-      <c r="E354" s="19"/>
-      <c r="F354" s="19"/>
+      <c r="D354" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="E354" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="F354" s="19" t="s">
+        <v>417</v>
+      </c>
       <c r="G354" s="19"/>
-      <c r="H354" s="19"/>
-      <c r="I354" s="19"/>
+      <c r="H354" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="I354" s="19" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="355" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7"/>
